--- a/04_PBL_02_不良個所自動検出/phase1/演習①　必要情報の洗い出し・情報の取得方法の検討/必要な情報の洗い出し.xlsx
+++ b/04_PBL_02_不良個所自動検出/phase1/演習①　必要情報の洗い出し・情報の取得方法の検討/必要な情報の洗い出し.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakin\OneDrive\document\Study\AI_Quest\04_PBL_02_ 不良個所自動検出による検品作業効率化（製造業）ビジネス導入課題①\演習①　必要情報の洗い出し・情報の取得方法の検討\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce27b73449ee5595/document/Study/AI_Quest/04_PBL_02_不良個所自動検出/phase1/演習①　必要情報の洗い出し・情報の取得方法の検討/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB9B019-B674-45D3-A933-228AE8E0FC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{5EB9B019-B674-45D3-A933-228AE8E0FC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03E5E728-7F82-4203-B6AB-36DE04DE9D54}"/>
   <bookViews>
-    <workbookView xWindow="7030" yWindow="1970" windowWidth="25880" windowHeight="12940" xr2:uid="{BA7D77B7-D721-4455-BBFB-04353E48838B}"/>
+    <workbookView xWindow="90" yWindow="1850" windowWidth="25820" windowHeight="12940" xr2:uid="{BA7D77B7-D721-4455-BBFB-04353E48838B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -65,6 +65,467 @@
   </si>
   <si>
     <t>製造部長・製造各課担当者</t>
+  </si>
+  <si>
+    <t>社長の見解と現場の見解に差異がないかを確認するため</t>
+    <rPh sb="0" eb="2">
+      <t>シャチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンバ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンカイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品質管理・検査課</t>
+    <rPh sb="0" eb="4">
+      <t>ヒンシツカンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査工程の工数・人材不足の課題感</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ジンザイブソク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効率化により価格を下げる事が求めるべきゴールかどうかの確認のため。（品質やマーケティングの課題である可能性の排除）</t>
+    <rPh sb="0" eb="3">
+      <t>コウリツカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ハイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客からの製品価格に対する評判</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カカク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製造部長・製造課</t>
+    <rPh sb="3" eb="4">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査対象品毎の製造に必要な工数・人員</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒンゴト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終的な効果算出の為。
+現状把握の為。</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サンシュツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ゲンジョウハアク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査対象品毎の検査に必要な工数・人員</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査対象品毎の検査目的・検査工程</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサタイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査対象品毎の検査目的・製造工程</t>
+    <rPh sb="0" eb="4">
+      <t>ケンサタイショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>セイゾウコウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製造品における重要な機能の理解の為。検査と製造工程の関係性把握の為。（検査対象品毎の製造工程を知らないと検査目的も十分な把握ができないと考えるため。）</t>
+    <rPh sb="0" eb="3">
+      <t>セイゾウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リカイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>カンケイセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>タイショウヒン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査において重要なポイントの理解の為。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査時の具体的な不適切事例</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="8" eb="13">
+      <t>フテキセツジレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各種不適切事例の原因</t>
+  </si>
+  <si>
+    <t>AI導入の実現可能性と効果把握の為。
+AI構築時のモデル候補検討の為。</t>
+    <rPh sb="2" eb="4">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>ジツゲンカノウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのような工程で不適合が発生しうるのかの把握の為。（検査の効率化が根本課題であるかどうかの確認の為）</t>
+    <rPh sb="5" eb="7">
+      <t>コウテイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>フテキゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハアク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>コウリツカ</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>コンポンカダイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検査対象品毎の現状の検査精度</t>
+    <rPh sb="7" eb="9">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AI導入時の目標設定の為。</t>
+    <rPh sb="2" eb="4">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業部
+管理部・経理課</t>
+    <rPh sb="0" eb="3">
+      <t>エイギョウブ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カンリブ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ケイリカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品質管理・検査課
+総務・人事課</t>
+    <rPh sb="0" eb="4">
+      <t>ヒンシツカンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウム</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ジンジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品質管理・検査課
+（必要により製造部全課）</t>
+    <rPh sb="0" eb="4">
+      <t>ヒンシツカンリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイゾウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ゼンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -431,16 +892,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D48065F-5E30-4EB7-8697-D9B491D78B31}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="4" width="23.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -472,58 +935,135 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>